--- a/KodtestRelationBrand/bin/Debug/netcoreapp3.1/SubscribersDB.xlsx
+++ b/KodtestRelationBrand/bin/Debug/netcoreapp3.1/SubscribersDB.xlsx
@@ -13556,7 +13556,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BMCqVdlMvzRoIBTg/O1FJAnNAPUo2VkJY4MGHy2bDg74WvJJqc+N6PoYMDXEj1mCIda4iQpIAvJsA2DpyFfQYQ==" saltValue="7V2/dR94/OWpJ49uNneosQ==" spinCount="500" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GHDqNOQx6zSx3m9dhocgu8alY5d0LBGYzoagCPMLADt6wlDYy6AOf9LaLsyiZSxDiEOvKOl417QfdpcmHQTa4w==" saltValue="YqLN8rwrSAnOv+qb5POr/w==" spinCount="500" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>

--- a/KodtestRelationBrand/bin/Debug/netcoreapp3.1/SubscribersDB.xlsx
+++ b/KodtestRelationBrand/bin/Debug/netcoreapp3.1/SubscribersDB.xlsx
@@ -13556,7 +13556,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GHDqNOQx6zSx3m9dhocgu8alY5d0LBGYzoagCPMLADt6wlDYy6AOf9LaLsyiZSxDiEOvKOl417QfdpcmHQTa4w==" saltValue="YqLN8rwrSAnOv+qb5POr/w==" spinCount="500" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PPYW+lmQg/CzcbdSDh3a3PZOR+hZ95/GqGP6AUf8pQ1KmdyTv42zSGABzT/qZwue2+WUMDbOYtdUbRxHxg13bA==" saltValue="vu1y6N/crFEufbCQa9c2pw==" spinCount="500" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
